--- a/REGULAR/PICNIC GROVE/ANACAY, ANICETA.xlsx
+++ b/REGULAR/PICNIC GROVE/ANACAY, ANICETA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="372">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1134,6 +1134,21 @@
   </si>
   <si>
     <t>8/25,29,30/2023</t>
+  </si>
+  <si>
+    <t>10/2,3/2023</t>
+  </si>
+  <si>
+    <t>SL(21-0-0)</t>
+  </si>
+  <si>
+    <t>9/1,4-8,11-15,18-22,25-29/2023</t>
+  </si>
+  <si>
+    <t>11/10,13,20/2023</t>
+  </si>
+  <si>
+    <t>12/4,11/2023</t>
   </si>
 </sst>
 </file>
@@ -1856,8 +1871,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K717" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K717"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K721" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K721"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2186,12 +2201,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K717"/>
+  <dimension ref="A2:K721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" topLeftCell="A657" activePane="bottomLeft"/>
-      <selection activeCell="G8" sqref="G8"/>
-      <selection pane="bottomLeft" activeCell="I675" sqref="I675"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A672" activePane="bottomLeft"/>
+      <selection activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="K682" sqref="K682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,7 +2365,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>174.08699999999993</v>
+        <v>171.58699999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2360,7 +2375,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>177.25</v>
+        <v>155.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16848,15 +16863,19 @@
       </c>
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A676" s="39"/>
+      <c r="A676" s="39">
+        <v>45170</v>
+      </c>
       <c r="B676" s="20"/>
-      <c r="C676" s="13"/>
+      <c r="C676" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D676" s="38"/>
       <c r="E676" s="9"/>
       <c r="F676" s="20"/>
-      <c r="G676" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G676" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H676" s="38"/>
       <c r="I676" s="9"/>
@@ -16864,24 +16883,36 @@
       <c r="K676" s="20"/>
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A677" s="39"/>
-      <c r="B677" s="20"/>
-      <c r="C677" s="13"/>
+      <c r="A677" s="39">
+        <v>45200</v>
+      </c>
+      <c r="B677" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C677" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D677" s="38"/>
       <c r="E677" s="9"/>
       <c r="F677" s="20"/>
-      <c r="G677" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H677" s="38"/>
+      <c r="G677" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H677" s="38">
+        <v>2</v>
+      </c>
       <c r="I677" s="9"/>
       <c r="J677" s="11"/>
-      <c r="K677" s="20"/>
+      <c r="K677" s="20" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="39"/>
-      <c r="B678" s="20"/>
+      <c r="B678" s="20" t="s">
+        <v>368</v>
+      </c>
       <c r="C678" s="13"/>
       <c r="D678" s="38"/>
       <c r="E678" s="9"/>
@@ -16890,14 +16921,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H678" s="38"/>
+      <c r="H678" s="38">
+        <v>21</v>
+      </c>
       <c r="I678" s="9"/>
       <c r="J678" s="11"/>
-      <c r="K678" s="20"/>
+      <c r="K678" s="20" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="39"/>
-      <c r="B679" s="20"/>
+      <c r="B679" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C679" s="13"/>
       <c r="D679" s="38"/>
       <c r="E679" s="9"/>
@@ -16906,16 +16943,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H679" s="38"/>
+      <c r="H679" s="38">
+        <v>1</v>
+      </c>
       <c r="I679" s="9"/>
       <c r="J679" s="11"/>
-      <c r="K679" s="20"/>
+      <c r="K679" s="48">
+        <v>45223</v>
+      </c>
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A680" s="39"/>
-      <c r="B680" s="20"/>
+      <c r="A680" s="39">
+        <v>45231</v>
+      </c>
+      <c r="B680" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C680" s="13"/>
-      <c r="D680" s="38"/>
+      <c r="D680" s="38">
+        <v>3</v>
+      </c>
       <c r="E680" s="9"/>
       <c r="F680" s="20"/>
       <c r="G680" s="13" t="str">
@@ -16925,13 +16972,19 @@
       <c r="H680" s="38"/>
       <c r="I680" s="9"/>
       <c r="J680" s="11"/>
-      <c r="K680" s="20"/>
+      <c r="K680" s="20" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="39"/>
-      <c r="B681" s="20"/>
+      <c r="B681" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C681" s="13"/>
-      <c r="D681" s="38"/>
+      <c r="D681" s="38">
+        <v>2</v>
+      </c>
       <c r="E681" s="9"/>
       <c r="F681" s="20"/>
       <c r="G681" s="13" t="str">
@@ -16941,11 +16994,15 @@
       <c r="H681" s="38"/>
       <c r="I681" s="9"/>
       <c r="J681" s="11"/>
-      <c r="K681" s="20"/>
+      <c r="K681" s="20" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="39"/>
-      <c r="B682" s="20"/>
+      <c r="B682" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C682" s="13"/>
       <c r="D682" s="38"/>
       <c r="E682" s="9"/>
@@ -16957,10 +17014,14 @@
       <c r="H682" s="38"/>
       <c r="I682" s="9"/>
       <c r="J682" s="11"/>
-      <c r="K682" s="20"/>
+      <c r="K682" s="48">
+        <v>45278</v>
+      </c>
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A683" s="39"/>
+      <c r="A683" s="39">
+        <v>45261</v>
+      </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
       <c r="D683" s="38"/>
@@ -17504,20 +17565,84 @@
       <c r="K716" s="20"/>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A717" s="40"/>
-      <c r="B717" s="15"/>
-      <c r="C717" s="41"/>
-      <c r="D717" s="42"/>
+      <c r="A717" s="39"/>
+      <c r="B717" s="20"/>
+      <c r="C717" s="13"/>
+      <c r="D717" s="38"/>
       <c r="E717" s="9"/>
-      <c r="F717" s="15"/>
-      <c r="G717" s="41" t="str">
+      <c r="F717" s="20"/>
+      <c r="G717" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H717" s="42"/>
+      <c r="H717" s="38"/>
       <c r="I717" s="9"/>
-      <c r="J717" s="12"/>
-      <c r="K717" s="15"/>
+      <c r="J717" s="11"/>
+      <c r="K717" s="20"/>
+    </row>
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A718" s="39"/>
+      <c r="B718" s="20"/>
+      <c r="C718" s="13"/>
+      <c r="D718" s="38"/>
+      <c r="E718" s="9"/>
+      <c r="F718" s="20"/>
+      <c r="G718" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H718" s="38"/>
+      <c r="I718" s="9"/>
+      <c r="J718" s="11"/>
+      <c r="K718" s="20"/>
+    </row>
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A719" s="39"/>
+      <c r="B719" s="20"/>
+      <c r="C719" s="13"/>
+      <c r="D719" s="38"/>
+      <c r="E719" s="9"/>
+      <c r="F719" s="20"/>
+      <c r="G719" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H719" s="38"/>
+      <c r="I719" s="9"/>
+      <c r="J719" s="11"/>
+      <c r="K719" s="20"/>
+    </row>
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A720" s="39"/>
+      <c r="B720" s="20"/>
+      <c r="C720" s="13"/>
+      <c r="D720" s="38"/>
+      <c r="E720" s="9"/>
+      <c r="F720" s="20"/>
+      <c r="G720" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H720" s="38"/>
+      <c r="I720" s="9"/>
+      <c r="J720" s="11"/>
+      <c r="K720" s="20"/>
+    </row>
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A721" s="40"/>
+      <c r="B721" s="15"/>
+      <c r="C721" s="41"/>
+      <c r="D721" s="42"/>
+      <c r="E721" s="9"/>
+      <c r="F721" s="15"/>
+      <c r="G721" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H721" s="42"/>
+      <c r="I721" s="9"/>
+      <c r="J721" s="12"/>
+      <c r="K721" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
